--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/D/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/D/15/seed1/result_data_RandomForest.xlsx
@@ -505,7 +505,7 @@
         <v>-11.3</v>
       </c>
       <c r="D4" t="n">
-        <v>-6.484999999999993</v>
+        <v>-6.907599999999997</v>
       </c>
       <c r="E4" t="n">
         <v>10.77</v>
@@ -539,7 +539,7 @@
         <v>-12.89</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.209200000000003</v>
+        <v>-8.155100000000003</v>
       </c>
       <c r="E6" t="n">
         <v>14.65</v>
@@ -556,7 +556,7 @@
         <v>-10.59</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.661499999999998</v>
+        <v>-7.519099999999994</v>
       </c>
       <c r="E7" t="n">
         <v>14.77</v>
@@ -709,7 +709,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.156800000000002</v>
+        <v>-8.1297</v>
       </c>
       <c r="E16" t="n">
         <v>13.16</v>
@@ -777,7 +777,7 @@
         <v>-14.65</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.3063</v>
+        <v>-8.318100000000001</v>
       </c>
       <c r="E20" t="n">
         <v>13.73</v>
